--- a/data_20_customers_corner_depot.xlsx
+++ b/data_20_customers_corner_depot.xlsx
@@ -485,13 +485,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>45.89560029351261</v>
+        <v>80.35628227793792</v>
       </c>
       <c r="C3" t="n">
-        <v>30.59094637655759</v>
+        <v>83.67351097456212</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -504,13 +504,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>95.7972653463797</v>
+        <v>29.95588334890411</v>
       </c>
       <c r="C4" t="n">
-        <v>8.062168994762386</v>
+        <v>6.19040477752808</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -523,13 +523,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68.90589492505916</v>
+        <v>21.85768504210076</v>
       </c>
       <c r="C5" t="n">
-        <v>36.07040713243184</v>
+        <v>64.97249528471562</v>
       </c>
       <c r="D5" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -542,13 +542,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23.58356105743895</v>
+        <v>23.2064047155359</v>
       </c>
       <c r="C6" t="n">
-        <v>23.10660211834182</v>
+        <v>33.02066102088711</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55.11385035206431</v>
+        <v>99.40675055619724</v>
       </c>
       <c r="C7" t="n">
-        <v>81.30959231007932</v>
+        <v>46.43495773750554</v>
       </c>
       <c r="D7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -580,13 +580,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>40.53327641807189</v>
+        <v>88.6324595542164</v>
       </c>
       <c r="C8" t="n">
-        <v>91.28682610378881</v>
+        <v>20.91950645433445</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -599,13 +599,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.54423080983485</v>
+        <v>60.82444105980216</v>
       </c>
       <c r="C9" t="n">
-        <v>41.24510402943393</v>
+        <v>63.28611531789142</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -618,17 +618,17 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.96546277900035</v>
+        <v>68.31677331319761</v>
       </c>
       <c r="C10" t="n">
-        <v>25.7871701512893</v>
+        <v>19.48800072877063</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>-18</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>linehaul</t>
+          <t>backhaul</t>
         </is>
       </c>
     </row>
@@ -637,17 +637,17 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.77743851112406</v>
+        <v>71.03258775421797</v>
       </c>
       <c r="C11" t="n">
-        <v>6.486213812261054</v>
+        <v>89.91059280595992</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>-18</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>linehaul</t>
+          <t>backhaul</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.30758142880207</v>
+        <v>15.22439457005163</v>
       </c>
       <c r="C12" t="n">
-        <v>98.16098510667881</v>
+        <v>65.65805873268577</v>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>-18</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>linehaul</t>
+          <t>backhaul</t>
         </is>
       </c>
     </row>
@@ -675,13 +675,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>61.19888122617964</v>
+        <v>42.56748931384364</v>
       </c>
       <c r="C13" t="n">
-        <v>10.81732923933714</v>
+        <v>86.62117869129681</v>
       </c>
       <c r="D13" t="n">
-        <v>-8</v>
+        <v>-16</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -694,13 +694,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>57.82242874181133</v>
+        <v>14.31984230476978</v>
       </c>
       <c r="C14" t="n">
-        <v>60.57577970038484</v>
+        <v>17.85071226817839</v>
       </c>
       <c r="D14" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -713,13 +713,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17.81152620355544</v>
+        <v>48.81098083663515</v>
       </c>
       <c r="C15" t="n">
-        <v>34.76257818389821</v>
+        <v>53.31340510408445</v>
       </c>
       <c r="D15" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -732,13 +732,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>57.30460494348775</v>
+        <v>43.78598809854866</v>
       </c>
       <c r="C16" t="n">
-        <v>38.40994493298852</v>
+        <v>93.56427816007783</v>
       </c>
       <c r="D16" t="n">
-        <v>-7</v>
+        <v>-18</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -751,13 +751,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>80.67809311679109</v>
+        <v>48.2661555078948</v>
       </c>
       <c r="C17" t="n">
-        <v>30.74948837826789</v>
+        <v>19.96605159287104</v>
       </c>
       <c r="D17" t="n">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -770,13 +770,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>40.35027377642941</v>
+        <v>54.54719776659698</v>
       </c>
       <c r="C18" t="n">
-        <v>46.55996570231736</v>
+        <v>78.70907893437537</v>
       </c>
       <c r="D18" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -789,13 +789,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>63.92662273080452</v>
+        <v>68.0417861743946</v>
       </c>
       <c r="C19" t="n">
-        <v>35.59931134290778</v>
+        <v>75.49303697325735</v>
       </c>
       <c r="D19" t="n">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -808,13 +808,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>62.18648000962587</v>
+        <v>95.9960833571126</v>
       </c>
       <c r="C20" t="n">
-        <v>97.64180391403485</v>
+        <v>61.74560894467912</v>
       </c>
       <c r="D20" t="n">
-        <v>-19</v>
+        <v>-11</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -827,13 +827,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>33.92337264408799</v>
+        <v>66.94117391151255</v>
       </c>
       <c r="C21" t="n">
-        <v>76.07046685011579</v>
+        <v>60.37700384212012</v>
       </c>
       <c r="D21" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -846,13 +846,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.100790137692544</v>
+        <v>20.89629029250348</v>
       </c>
       <c r="C22" t="n">
-        <v>93.77997638205029</v>
+        <v>55.27799243429402</v>
       </c>
       <c r="D22" t="n">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
